--- a/data/trans_orig/IP17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA86B58-B2B2-4E06-BC83-CD327C52490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB937F40-2749-4E6B-95AA-2C39DD59E17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84FD80D3-0327-4412-B39C-CDF9962ADA98}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12C36EFC-0EF8-43F4-A791-8821BC5E3D70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="306">
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -104,850 +104,856 @@
     <t>23,75%</t>
   </si>
   <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>81,76%</t>
+    <t>81,88%</t>
   </si>
   <si>
     <t>85,22%</t>
@@ -1362,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4726AF58-E1F6-44A2-A4E6-1DF64237BDE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C681992A-33E1-43F1-8B70-D20F4F508B63}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1978,10 +1984,10 @@
         <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +2002,13 @@
         <v>122892</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>203</v>
@@ -2011,13 +2017,13 @@
         <v>139829</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>387</v>
@@ -2026,13 +2032,13 @@
         <v>262721</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2106,13 @@
         <v>161836</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -2115,13 +2121,13 @@
         <v>133587</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>443</v>
@@ -2130,13 +2136,13 @@
         <v>295424</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2157,13 @@
         <v>560864</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>817</v>
@@ -2166,13 +2172,13 @@
         <v>547434</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>1661</v>
@@ -2181,13 +2187,13 @@
         <v>1108297</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,7 +2249,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A772F4-9915-4068-9677-AD329FBECCAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1348813-5EF0-4CAF-9832-36909C9C4A59}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2280,7 +2286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2536,13 +2542,13 @@
         <v>17351</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2551,13 +2557,13 @@
         <v>19379</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -2566,13 +2572,13 @@
         <v>36730</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,28 +2593,28 @@
         <v>68841</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>105</v>
       </c>
       <c r="I8" s="7">
-        <v>72989</v>
+        <v>72990</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>200</v>
@@ -2617,13 +2623,13 @@
         <v>141831</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,7 +2656,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -2691,13 +2697,13 @@
         <v>122092</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -2706,13 +2712,13 @@
         <v>99983</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -2721,13 +2727,13 @@
         <v>222076</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2748,13 @@
         <v>370055</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -2757,13 +2763,13 @@
         <v>351464</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>1038</v>
@@ -2772,13 +2778,13 @@
         <v>721518</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2852,13 @@
         <v>31137</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -2861,13 +2867,13 @@
         <v>43783</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -2876,13 +2882,13 @@
         <v>74920</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,10 +2903,10 @@
         <v>141091</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>139</v>
@@ -3022,7 +3028,7 @@
         <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
@@ -3031,13 +3037,13 @@
         <v>333726</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3058,13 @@
         <v>580628</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>788</v>
@@ -3067,13 +3073,13 @@
         <v>546808</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>1614</v>
@@ -3082,13 +3088,13 @@
         <v>1127436</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3150,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3164,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219C8382-6E8B-4DAE-A35E-64EF35F93446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC26E7D8-2D42-4808-8FD5-1010AF6F4AC9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3181,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3425,13 +3431,13 @@
         <v>12114</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -3440,13 +3446,13 @@
         <v>19229</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -3455,13 +3461,13 @@
         <v>31343</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3482,13 @@
         <v>56500</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -3491,13 +3497,13 @@
         <v>40149</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>142</v>
@@ -3506,13 +3512,13 @@
         <v>96650</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3586,13 @@
         <v>96669</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -3595,13 +3601,13 @@
         <v>92829</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>288</v>
@@ -3610,13 +3616,13 @@
         <v>189498</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3637,13 @@
         <v>389442</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>567</v>
@@ -3646,13 +3652,13 @@
         <v>378765</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>1116</v>
@@ -3661,13 +3667,13 @@
         <v>768207</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3741,13 @@
         <v>37335</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3750,13 +3756,13 @@
         <v>31829</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -3765,13 +3771,13 @@
         <v>69164</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3792,13 @@
         <v>148797</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>209</v>
@@ -3801,10 +3807,10 @@
         <v>140268</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>213</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +4059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA518E38-3B9A-43B6-ACBD-9F6BA80F3DDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFCEF49-EC00-4F74-ACAC-01A2B2F190FA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4356,13 +4362,13 @@
         <v>15430</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4383,13 @@
         <v>49901</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -4392,13 +4398,13 @@
         <v>44628</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>128</v>
@@ -4407,13 +4413,13 @@
         <v>94529</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4487,13 @@
         <v>87982</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4496,13 +4502,13 @@
         <v>66009</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -4511,13 +4517,13 @@
         <v>153991</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4538,13 @@
         <v>404382</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>544</v>
@@ -4547,13 +4553,13 @@
         <v>383127</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>1065</v>
@@ -4562,13 +4568,13 @@
         <v>787509</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4642,13 @@
         <v>29588</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4651,13 +4657,13 @@
         <v>27340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -4666,13 +4672,13 @@
         <v>56928</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4693,13 @@
         <v>144995</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -4702,7 +4708,7 @@
         <v>124030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>283</v>
@@ -4791,13 +4797,13 @@
         <v>126426</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>153</v>
@@ -4806,13 +4812,13 @@
         <v>99923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>341</v>
@@ -4821,13 +4827,13 @@
         <v>226348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4848,13 @@
         <v>599278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>789</v>
@@ -4857,13 +4863,13 @@
         <v>552956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>1578</v>
@@ -4872,13 +4878,13 @@
         <v>1152235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,7 +4940,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB937F40-2749-4E6B-95AA-2C39DD59E17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D1541B-6BB8-4D0A-974F-757F251D377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12C36EFC-0EF8-43F4-A791-8821BC5E3D70}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{36A38094-664D-429D-90FD-843A301D4EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,247 +68,232 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>77,78%</t>
   </si>
   <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>24,37%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>79,08%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>82,54%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -317,646 +302,592 @@
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>79,87%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>76,46%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2016 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>82,34%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>75,51%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>17,08%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
 </sst>
 </file>
@@ -1368,8 +1299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C681992A-33E1-43F1-8B70-D20F4F508B63}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E0992B-ECB2-45D2-B1E6-4305740909BD}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1486,10 +1417,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>19978</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1501,81 +1432,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20622</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>40600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>70889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66223</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>137112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,151 +1519,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="D7" s="7">
-        <v>20621</v>
+        <v>79372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>19978</v>
+        <v>105969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="N7" s="7">
-        <v>40600</v>
+        <v>185340</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>508</v>
       </c>
       <c r="D8" s="7">
-        <v>66223</v>
+        <v>336715</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>106</v>
+        <v>560</v>
       </c>
       <c r="I8" s="7">
-        <v>70889</v>
+        <v>371022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>205</v>
+        <v>1068</v>
       </c>
       <c r="N8" s="7">
-        <v>137112</v>
+        <v>707738</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,153 +1674,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>105969</v>
+        <v>34237</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>79372</v>
+        <v>35246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>185340</v>
+        <v>69484</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>560</v>
+        <v>203</v>
       </c>
       <c r="D11" s="7">
-        <v>371022</v>
+        <v>139829</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>508</v>
+        <v>184</v>
       </c>
       <c r="I11" s="7">
-        <v>336715</v>
+        <v>122892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>1068</v>
+        <v>387</v>
       </c>
       <c r="N11" s="7">
-        <v>707738</v>
+        <v>262721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,153 +1829,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="D13" s="7">
-        <v>35246</v>
+        <v>133587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="I13" s="7">
-        <v>34237</v>
+        <v>161836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>103</v>
+        <v>443</v>
       </c>
       <c r="N13" s="7">
-        <v>69484</v>
+        <v>295424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>817</v>
       </c>
       <c r="D14" s="7">
-        <v>122892</v>
+        <v>547434</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>203</v>
+        <v>843</v>
       </c>
       <c r="I14" s="7">
-        <v>139829</v>
+        <v>560138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>387</v>
+        <v>1660</v>
       </c>
       <c r="N14" s="7">
-        <v>262721</v>
+        <v>1107571</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,216 +1984,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>242</v>
-      </c>
-      <c r="D16" s="7">
-        <v>161836</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>201</v>
-      </c>
-      <c r="I16" s="7">
-        <v>133587</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="7">
-        <v>443</v>
-      </c>
-      <c r="N16" s="7">
-        <v>295424</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>844</v>
-      </c>
-      <c r="D17" s="7">
-        <v>560864</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="7">
-        <v>817</v>
-      </c>
-      <c r="I17" s="7">
-        <v>547434</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1661</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1108297</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2269,8 +2050,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1348813-5EF0-4CAF-9832-36909C9C4A59}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4CE557-AA17-4117-A8CD-0F37CB3495BF}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2286,7 +2067,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2387,96 +2168,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>19379</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17351</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>36730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>72990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68841</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>141831</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,151 +2270,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7">
-        <v>17351</v>
+        <v>99983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="I7" s="7">
-        <v>19379</v>
+        <v>122092</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>55</v>
+        <v>321</v>
       </c>
       <c r="N7" s="7">
-        <v>36730</v>
+        <v>222076</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>95</v>
+        <v>508</v>
       </c>
       <c r="D8" s="7">
-        <v>68841</v>
+        <v>351464</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>105</v>
+        <v>530</v>
       </c>
       <c r="I8" s="7">
-        <v>72990</v>
+        <v>370055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>200</v>
+        <v>1038</v>
       </c>
       <c r="N8" s="7">
-        <v>141831</v>
+        <v>721518</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,153 +2425,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>654</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>451447</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>492147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>255</v>
+        <v>1359</v>
       </c>
       <c r="N9" s="7">
-        <v>178561</v>
+        <v>943594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>122092</v>
+        <v>43783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>99983</v>
+        <v>31137</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="N10" s="7">
-        <v>222076</v>
+        <v>74920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>530</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>370055</v>
+        <v>122355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>508</v>
+        <v>200</v>
       </c>
       <c r="I11" s="7">
-        <v>351464</v>
+        <v>141091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>1038</v>
+        <v>375</v>
       </c>
       <c r="N11" s="7">
-        <v>721518</v>
+        <v>263446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,153 +2580,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>492147</v>
+        <v>166138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>654</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>451447</v>
+        <v>172228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1359</v>
+        <v>479</v>
       </c>
       <c r="N12" s="7">
-        <v>943594</v>
+        <v>338366</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="D13" s="7">
-        <v>31137</v>
+        <v>163145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="I13" s="7">
-        <v>43783</v>
+        <v>170581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
-        <v>104</v>
+        <v>480</v>
       </c>
       <c r="N13" s="7">
-        <v>74920</v>
+        <v>333726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>788</v>
       </c>
       <c r="D14" s="7">
-        <v>141091</v>
+        <v>546808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>175</v>
+        <v>825</v>
       </c>
       <c r="I14" s="7">
-        <v>122355</v>
+        <v>579986</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>375</v>
+        <v>1613</v>
       </c>
       <c r="N14" s="7">
-        <v>263446</v>
+        <v>1126795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,216 +2735,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>1023</v>
       </c>
       <c r="D15" s="7">
-        <v>172228</v>
+        <v>709953</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>1070</v>
       </c>
       <c r="I15" s="7">
-        <v>166138</v>
+        <v>750567</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>479</v>
+        <v>2093</v>
       </c>
       <c r="N15" s="7">
-        <v>338366</v>
+        <v>1460521</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>245</v>
-      </c>
-      <c r="D16" s="7">
-        <v>170581</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="7">
-        <v>235</v>
-      </c>
-      <c r="I16" s="7">
-        <v>163145</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="7">
-        <v>480</v>
-      </c>
-      <c r="N16" s="7">
-        <v>333726</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>826</v>
-      </c>
-      <c r="D17" s="7">
-        <v>580628</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="7">
-        <v>788</v>
-      </c>
-      <c r="I17" s="7">
-        <v>546808</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1614</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1127436</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1071</v>
-      </c>
-      <c r="D18" s="7">
-        <v>751209</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I18" s="7">
-        <v>709953</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1461162</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3170,8 +2801,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC26E7D8-2D42-4808-8FD5-1010AF6F4AC9}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D47A408-8CA2-41B5-B89F-BB6D577CCFC2}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3187,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3288,88 +2919,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>19229</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12114</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="N4" s="7">
+        <v>31343</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D5" s="7">
+        <v>40149</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="I5" s="7">
+        <v>56500</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="N5" s="7">
+        <v>96650</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,147 +3021,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7">
-        <v>12114</v>
+        <v>92829</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I7" s="7">
-        <v>19229</v>
+        <v>96669</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="N7" s="7">
-        <v>31343</v>
+        <v>189498</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="D8" s="7">
-        <v>56500</v>
+        <v>378765</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>549</v>
       </c>
       <c r="I8" s="7">
-        <v>40149</v>
+        <v>389442</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
-        <v>142</v>
+        <v>1116</v>
       </c>
       <c r="N8" s="7">
-        <v>96650</v>
+        <v>768207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,153 +3176,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>713</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>471594</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>691</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>486111</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1404</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>957705</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>96669</v>
+        <v>31829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>92829</v>
+        <v>37335</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>189498</v>
+        <v>69164</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>549</v>
+        <v>209</v>
       </c>
       <c r="D11" s="7">
-        <v>389442</v>
+        <v>140268</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>567</v>
+        <v>214</v>
       </c>
       <c r="I11" s="7">
-        <v>378765</v>
+        <v>148797</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
-        <v>1116</v>
+        <v>423</v>
       </c>
       <c r="N11" s="7">
-        <v>768207</v>
+        <v>289065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,153 +3331,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>691</v>
+        <v>257</v>
       </c>
       <c r="D12" s="7">
-        <v>486111</v>
+        <v>172097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>713</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>471594</v>
+        <v>186132</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1404</v>
+        <v>526</v>
       </c>
       <c r="N12" s="7">
-        <v>957705</v>
+        <v>358229</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="D13" s="7">
-        <v>37335</v>
+        <v>143886</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>31829</v>
+        <v>146119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>103</v>
+        <v>437</v>
       </c>
       <c r="N13" s="7">
-        <v>69164</v>
+        <v>290005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>836</v>
+      </c>
+      <c r="D14" s="7">
+        <v>559184</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="7">
+        <v>845</v>
+      </c>
+      <c r="I14" s="7">
+        <v>594738</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="7">
-        <v>148797</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H14" s="7">
-        <v>209</v>
-      </c>
-      <c r="I14" s="7">
-        <v>140268</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="M14" s="7">
-        <v>423</v>
+        <v>1681</v>
       </c>
       <c r="N14" s="7">
-        <v>289065</v>
+        <v>1153922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,216 +3486,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>269</v>
+        <v>1059</v>
       </c>
       <c r="D15" s="7">
-        <v>186132</v>
+        <v>703070</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>257</v>
+        <v>1059</v>
       </c>
       <c r="I15" s="7">
-        <v>172097</v>
+        <v>740857</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>526</v>
+        <v>2118</v>
       </c>
       <c r="N15" s="7">
-        <v>358229</v>
+        <v>1443927</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>214</v>
-      </c>
-      <c r="D16" s="7">
-        <v>146119</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="7">
-        <v>223</v>
-      </c>
-      <c r="I16" s="7">
-        <v>143886</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M16" s="7">
-        <v>437</v>
-      </c>
-      <c r="N16" s="7">
-        <v>290005</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>845</v>
-      </c>
-      <c r="D17" s="7">
-        <v>594738</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="7">
-        <v>836</v>
-      </c>
-      <c r="I17" s="7">
-        <v>559184</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1681</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1153922</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D18" s="7">
-        <v>740857</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I18" s="7">
-        <v>703070</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1443927</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4059,8 +3552,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFCEF49-EC00-4F74-ACAC-01A2B2F190FA}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA15F1C3-638E-4686-B645-F3A9562FB770}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4076,7 +3569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4177,96 +3670,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6545</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>9434</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>15979</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48133</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>52570</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>100703</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,94 +3772,96 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D7" s="7">
-        <v>8856</v>
+        <v>66237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I7" s="7">
-        <v>6574</v>
+        <v>91249</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>233</v>
+      </c>
+      <c r="N7" s="7">
+        <v>157487</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="M7" s="7">
-        <v>24</v>
-      </c>
-      <c r="N7" s="7">
-        <v>15430</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>242</v>
@@ -4374,13 +3873,13 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>70</v>
+        <v>544</v>
       </c>
       <c r="D8" s="7">
-        <v>49901</v>
+        <v>393457</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>244</v>
@@ -4392,34 +3891,34 @@
         <v>246</v>
       </c>
       <c r="H8" s="7">
-        <v>58</v>
+        <v>521</v>
       </c>
       <c r="I8" s="7">
-        <v>44628</v>
+        <v>425370</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1065</v>
+      </c>
+      <c r="N8" s="7">
+        <v>818826</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M8" s="7">
-        <v>128</v>
-      </c>
-      <c r="N8" s="7">
-        <v>94529</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,153 +3927,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>976313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>87982</v>
+        <v>27531</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>40</v>
+      </c>
+      <c r="I10" s="7">
+        <v>30910</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H10" s="7">
-        <v>98</v>
-      </c>
-      <c r="I10" s="7">
-        <v>66009</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>84</v>
+      </c>
+      <c r="N10" s="7">
+        <v>58441</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="M10" s="7">
-        <v>233</v>
-      </c>
-      <c r="N10" s="7">
-        <v>153991</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>521</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7">
-        <v>404382</v>
+        <v>122020</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="7">
+        <v>198</v>
+      </c>
+      <c r="I11" s="7">
+        <v>152439</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="7">
+        <v>384</v>
+      </c>
+      <c r="N11" s="7">
+        <v>274459</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="7">
-        <v>544</v>
-      </c>
-      <c r="I11" s="7">
-        <v>383127</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1065</v>
-      </c>
-      <c r="N11" s="7">
-        <v>787509</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,153 +4082,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1298</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>941500</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7">
-        <v>29588</v>
+        <v>100314</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="7">
+        <v>188</v>
+      </c>
+      <c r="I13" s="7">
+        <v>131592</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>341</v>
+      </c>
+      <c r="N13" s="7">
+        <v>231906</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="7">
-        <v>44</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27340</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M13" s="7">
-        <v>84</v>
-      </c>
-      <c r="N13" s="7">
-        <v>56928</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>198</v>
+        <v>788</v>
       </c>
       <c r="D14" s="7">
-        <v>144995</v>
+        <v>563609</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="7">
+        <v>789</v>
+      </c>
+      <c r="I14" s="7">
+        <v>630380</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1577</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1193989</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H14" s="7">
-        <v>186</v>
-      </c>
-      <c r="I14" s="7">
-        <v>124030</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M14" s="7">
-        <v>384</v>
-      </c>
-      <c r="N14" s="7">
-        <v>269024</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,216 +4237,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1918</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1425895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>188</v>
-      </c>
-      <c r="D16" s="7">
-        <v>126426</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="7">
-        <v>153</v>
-      </c>
-      <c r="I16" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M16" s="7">
-        <v>341</v>
-      </c>
-      <c r="N16" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>789</v>
-      </c>
-      <c r="D17" s="7">
-        <v>599278</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H17" s="7">
-        <v>789</v>
-      </c>
-      <c r="I17" s="7">
-        <v>552956</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1578</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1152235</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>977</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1378583</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
